--- a/input/consolidation_result_ARGlass_TypeA.xlsx
+++ b/input/consolidation_result_ARGlass_TypeA.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python-pandas-excel-automation\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\upwork\shows\Scraping\large_dataset\python-pandas-excel-automation\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402D7245-220D-4C31-BCE2-313C03B89C2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8FDA0-E947-4E42-8E79-0B889E890B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -406,20 +399,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -453,7 +446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>$A2+1</f>
         <v>2</v>
@@ -471,7 +464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">$A3+1</f>
         <v>3</v>
@@ -489,7 +482,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -507,7 +500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -525,7 +518,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -543,7 +536,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -561,7 +554,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -579,7 +572,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -597,7 +590,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -615,7 +608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>$A11+1</f>
         <v>11</v>
@@ -633,7 +626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A76" si="1">$A12+1</f>
         <v>12</v>
@@ -651,7 +644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -669,7 +662,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -687,7 +680,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -705,7 +698,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -723,7 +716,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -741,7 +734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -759,7 +752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -777,7 +770,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -795,7 +788,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -813,7 +806,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -831,7 +824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -849,7 +842,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -867,7 +860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -885,7 +878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -903,7 +896,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -921,7 +914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -939,7 +932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -957,7 +950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -975,7 +968,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -993,7 +986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1011,7 +1004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1029,7 +1022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1047,7 +1040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1065,7 +1058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1083,7 +1076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -1101,7 +1094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -1119,7 +1112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -1137,7 +1130,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -1155,7 +1148,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -1173,7 +1166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1191,7 +1184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -1209,7 +1202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -1227,7 +1220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -1245,7 +1238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -1263,7 +1256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1281,7 +1274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1299,7 +1292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1317,7 +1310,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1335,7 +1328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1353,7 +1346,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1371,7 +1364,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1389,7 +1382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1407,7 +1400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1425,7 +1418,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1443,7 +1436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -1461,7 +1454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -1479,7 +1472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1497,7 +1490,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -1515,7 +1508,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -1533,7 +1526,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -1551,7 +1544,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1569,7 +1562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -1587,7 +1580,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -1605,7 +1598,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1623,7 +1616,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -1641,7 +1634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -1659,7 +1652,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -1677,7 +1670,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1695,7 +1688,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -1713,7 +1706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1731,7 +1724,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -1749,7 +1742,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -1767,7 +1760,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -1785,7 +1778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ref="A77:A101" si="2">$A76+1</f>
         <v>76</v>
@@ -1803,7 +1796,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -1821,7 +1814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -1839,7 +1832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -1857,7 +1850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -1875,7 +1868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -1893,7 +1886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -1911,7 +1904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -1929,7 +1922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -1947,7 +1940,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -1965,7 +1958,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -1983,7 +1976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -2001,7 +1994,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -2019,7 +2012,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -2037,7 +2030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -2055,7 +2048,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -2073,7 +2066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -2091,7 +2084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -2109,7 +2102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -2127,7 +2120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -2145,7 +2138,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -2163,7 +2156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -2181,7 +2174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -2199,7 +2192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -2217,7 +2210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -2235,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ref="A102" si="3">$A101+1</f>
         <v>101</v>
@@ -2253,7 +2246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ref="A103" si="4">$A102+1</f>
         <v>102</v>
@@ -2271,7 +2264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ref="A104" si="5">$A103+1</f>
         <v>103</v>
@@ -2289,7 +2282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ref="A105" si="6">$A104+1</f>
         <v>104</v>
@@ -2307,7 +2300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ref="A106" si="7">$A105+1</f>
         <v>105</v>
@@ -2325,7 +2318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ref="A107" si="8">$A106+1</f>
         <v>106</v>
@@ -2343,7 +2336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ref="A108" si="9">$A107+1</f>
         <v>107</v>
@@ -2361,7 +2354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ref="A109" si="10">$A108+1</f>
         <v>108</v>
@@ -2379,7 +2372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ref="A110" si="11">$A109+1</f>
         <v>109</v>
@@ -2397,7 +2390,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ref="A111" si="12">$A110+1</f>
         <v>110</v>
@@ -2415,7 +2408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ref="A112" si="13">$A111+1</f>
         <v>111</v>
@@ -2433,7 +2426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ref="A113" si="14">$A112+1</f>
         <v>112</v>
@@ -2451,7 +2444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ref="A114" si="15">$A113+1</f>
         <v>113</v>
@@ -2469,7 +2462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ref="A115" si="16">$A114+1</f>
         <v>114</v>
@@ -2487,7 +2480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ref="A116" si="17">$A115+1</f>
         <v>115</v>
@@ -2505,7 +2498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ref="A117" si="18">$A116+1</f>
         <v>116</v>
@@ -2523,7 +2516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ref="A118" si="19">$A117+1</f>
         <v>117</v>
@@ -2541,7 +2534,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>$A118+1</f>
         <v>118</v>
@@ -2559,7 +2552,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ref="A120" si="20">$A119+1</f>
         <v>119</v>
@@ -2577,7 +2570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ref="A121" si="21">$A120+1</f>
         <v>120</v>
@@ -2595,7 +2588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ref="A122" si="22">$A121+1</f>
         <v>121</v>
@@ -2613,7 +2606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ref="A123" si="23">$A122+1</f>
         <v>122</v>
@@ -2631,7 +2624,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ref="A124" si="24">$A123+1</f>
         <v>123</v>
@@ -2649,7 +2642,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ref="A125" si="25">$A124+1</f>
         <v>124</v>
@@ -2667,7 +2660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ref="A126" si="26">$A125+1</f>
         <v>125</v>
@@ -2685,7 +2678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ref="A127" si="27">$A126+1</f>
         <v>126</v>
@@ -2703,7 +2696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ref="A128" si="28">$A127+1</f>
         <v>127</v>
@@ -2721,7 +2714,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ref="A129" si="29">$A128+1</f>
         <v>128</v>
@@ -2739,7 +2732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130" si="30">$A129+1</f>
         <v>129</v>
@@ -2757,7 +2750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131" si="31">$A130+1</f>
         <v>130</v>
@@ -2775,7 +2768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132" si="32">$A131+1</f>
         <v>131</v>
@@ -2793,7 +2786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ref="A133" si="33">$A132+1</f>
         <v>132</v>
@@ -2811,7 +2804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ref="A134" si="34">$A133+1</f>
         <v>133</v>
@@ -2829,7 +2822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ref="A135" si="35">$A134+1</f>
         <v>134</v>
@@ -2847,7 +2840,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ref="A136" si="36">$A135+1</f>
         <v>135</v>
@@ -2865,7 +2858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ref="A137" si="37">$A136+1</f>
         <v>136</v>
@@ -2883,7 +2876,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ref="A138" si="38">$A137+1</f>
         <v>137</v>
@@ -2901,7 +2894,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ref="A139" si="39">$A138+1</f>
         <v>138</v>
@@ -2919,7 +2912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ref="A140" si="40">$A139+1</f>
         <v>139</v>
@@ -2937,7 +2930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ref="A141" si="41">$A140+1</f>
         <v>140</v>
@@ -2955,7 +2948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ref="A142" si="42">$A141+1</f>
         <v>141</v>
@@ -2973,7 +2966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ref="A143" si="43">$A142+1</f>
         <v>142</v>
@@ -2991,7 +2984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ref="A144" si="44">$A143+1</f>
         <v>143</v>
@@ -3009,7 +3002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ref="A145" si="45">$A144+1</f>
         <v>144</v>
@@ -3027,7 +3020,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ref="A146" si="46">$A145+1</f>
         <v>145</v>
@@ -3045,7 +3038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ref="A147" si="47">$A146+1</f>
         <v>146</v>
@@ -3063,7 +3056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ref="A148" si="48">$A147+1</f>
         <v>147</v>
@@ -3081,7 +3074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ref="A149" si="49">$A148+1</f>
         <v>148</v>
@@ -3099,7 +3092,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ref="A150" si="50">$A149+1</f>
         <v>149</v>
@@ -3117,7 +3110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ref="A151" si="51">$A150+1</f>
         <v>150</v>
@@ -3135,7 +3128,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ref="A152" si="52">$A151+1</f>
         <v>151</v>
@@ -3153,7 +3146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ref="A153" si="53">$A152+1</f>
         <v>152</v>
@@ -3171,7 +3164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ref="A154" si="54">$A153+1</f>
         <v>153</v>
@@ -3189,7 +3182,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ref="A155" si="55">$A154+1</f>
         <v>154</v>
@@ -3207,7 +3200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ref="A156" si="56">$A155+1</f>
         <v>155</v>
@@ -3225,7 +3218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ref="A157" si="57">$A156+1</f>
         <v>156</v>
@@ -3243,7 +3236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ref="A158" si="58">$A157+1</f>
         <v>157</v>
@@ -3261,7 +3254,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ref="A159" si="59">$A158+1</f>
         <v>158</v>
@@ -3279,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ref="A160" si="60">$A159+1</f>
         <v>159</v>
@@ -3297,7 +3290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ref="A161" si="61">$A160+1</f>
         <v>160</v>
@@ -3315,7 +3308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ref="A162" si="62">$A161+1</f>
         <v>161</v>
@@ -3333,7 +3326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ref="A163" si="63">$A162+1</f>
         <v>162</v>
@@ -3351,7 +3344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ref="A164" si="64">$A163+1</f>
         <v>163</v>
@@ -3369,7 +3362,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ref="A165" si="65">$A164+1</f>
         <v>164</v>
@@ -3387,7 +3380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ref="A166" si="66">$A165+1</f>
         <v>165</v>
@@ -3405,7 +3398,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ref="A167" si="67">$A166+1</f>
         <v>166</v>
@@ -3423,7 +3416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ref="A168" si="68">$A167+1</f>
         <v>167</v>
@@ -3441,7 +3434,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ref="A169" si="69">$A168+1</f>
         <v>168</v>
@@ -3459,7 +3452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ref="A170" si="70">$A169+1</f>
         <v>169</v>
@@ -3477,7 +3470,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ref="A171" si="71">$A170+1</f>
         <v>170</v>
@@ -3495,7 +3488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ref="A172" si="72">$A171+1</f>
         <v>171</v>
@@ -3513,7 +3506,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ref="A173" si="73">$A172+1</f>
         <v>172</v>
@@ -3531,7 +3524,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ref="A174" si="74">$A173+1</f>
         <v>173</v>
@@ -3549,7 +3542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ref="A175" si="75">$A174+1</f>
         <v>174</v>
@@ -3567,7 +3560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ref="A176" si="76">$A175+1</f>
         <v>175</v>
@@ -3585,7 +3578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ref="A177" si="77">$A176+1</f>
         <v>176</v>
@@ -3603,7 +3596,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ref="A178" si="78">$A177+1</f>
         <v>177</v>
@@ -3621,7 +3614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ref="A179" si="79">$A178+1</f>
         <v>178</v>
@@ -3639,7 +3632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ref="A180" si="80">$A179+1</f>
         <v>179</v>
@@ -3657,7 +3650,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ref="A181" si="81">$A180+1</f>
         <v>180</v>
@@ -3675,7 +3668,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ref="A182" si="82">$A181+1</f>
         <v>181</v>
@@ -3693,7 +3686,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ref="A183" si="83">$A182+1</f>
         <v>182</v>
@@ -3711,7 +3704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ref="A184" si="84">$A183+1</f>
         <v>183</v>
@@ -3729,7 +3722,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ref="A185" si="85">$A184+1</f>
         <v>184</v>
@@ -3747,7 +3740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ref="A186" si="86">$A185+1</f>
         <v>185</v>
@@ -3765,7 +3758,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ref="A187" si="87">$A186+1</f>
         <v>186</v>
@@ -3783,7 +3776,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ref="A188" si="88">$A187+1</f>
         <v>187</v>
@@ -3801,7 +3794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ref="A189" si="89">$A188+1</f>
         <v>188</v>
@@ -3819,7 +3812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ref="A190" si="90">$A189+1</f>
         <v>189</v>
@@ -3837,7 +3830,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ref="A191" si="91">$A190+1</f>
         <v>190</v>
@@ -3855,7 +3848,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ref="A192" si="92">$A191+1</f>
         <v>191</v>
@@ -3873,7 +3866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ref="A193" si="93">$A192+1</f>
         <v>192</v>
@@ -3891,7 +3884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ref="A194" si="94">$A193+1</f>
         <v>193</v>
@@ -3909,7 +3902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ref="A195" si="95">$A194+1</f>
         <v>194</v>
@@ -3927,7 +3920,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196" si="96">$A195+1</f>
         <v>195</v>
@@ -3945,7 +3938,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ref="A197" si="97">$A196+1</f>
         <v>196</v>
@@ -3963,7 +3956,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ref="A198" si="98">$A197+1</f>
         <v>197</v>
@@ -3981,7 +3974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ref="A199" si="99">$A198+1</f>
         <v>198</v>
@@ -3999,7 +3992,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ref="A200" si="100">$A199+1</f>
         <v>199</v>
@@ -4017,7 +4010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ref="A201" si="101">$A200+1</f>
         <v>200</v>
